--- a/CashFlow/DGX_cashflow.xlsx
+++ b/CashFlow/DGX_cashflow.xlsx
@@ -959,19 +959,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4818000000.0</v>
+        <v>335000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4235000000.0</v>
+        <v>452000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3782000000.0</v>
+        <v>507000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2158000000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1017000000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>73000000.0</v>
